--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/A127-Valvola-.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/A127-Valvola-.xlsx
@@ -54,8 +54,74 @@
     <x:t>Data misurazioni</x:t>
   </x:si>
   <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">0
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:26,444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:26,453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:26,466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:26,478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:26,719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:26,723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:27,219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:27,223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:27,718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:27,722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:27,749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:28,218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:28,222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:28,256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:28,722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:28,726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:29,221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:29,225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:29,721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:29,725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/02/2024 10:21:29,758</x:t>
   </x:si>
   <x:si>
     <x:t>Nome Valvola</x:t>
@@ -1354,76 +1420,243 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="1"/>
-      <x:c r="B2" s="5"/>
-      <x:c r="C2" s="2"/>
+      <x:c r="A2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="1"/>
-      <x:c r="B3" s="1"/>
+      <x:c r="A3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="1"/>
-      <x:c r="B4" s="1"/>
-      <x:c r="C4" s="2"/>
+      <x:c r="A4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="1"/>
-      <x:c r="B5" s="1"/>
-      <x:c r="C5" s="2"/>
+      <x:c r="A5" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="1"/>
-      <x:c r="B6" s="1"/>
-      <x:c r="C6" s="2"/>
+      <x:c r="A6" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="1"/>
-      <x:c r="B7" s="1"/>
-      <x:c r="C7" s="2"/>
+      <x:c r="A7" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="1"/>
-      <x:c r="B8" s="1"/>
-      <x:c r="C8" s="2"/>
+      <x:c r="A8" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="1"/>
-      <x:c r="B9" s="1"/>
-      <x:c r="C9" s="2"/>
+      <x:c r="A9" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="1"/>
-      <x:c r="B10" s="1"/>
-      <x:c r="C10" s="2"/>
+      <x:c r="A10" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="1"/>
-      <x:c r="B11" s="1"/>
-      <x:c r="C11" s="2"/>
+      <x:c r="A11" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="1"/>
-      <x:c r="B12" s="1"/>
-      <x:c r="C12" s="2"/>
+      <x:c r="A12" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="1"/>
-      <x:c r="B13" s="1"/>
-      <x:c r="C13" s="2"/>
+      <x:c r="A13" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="C14" s="2"/>
+      <x:c r="A14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="D16" s="1"/>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A29" s="0">
         <x:v>453</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1487,27 +1720,27 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>-1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="0">
         <x:v>0</x:v>
